--- a/data/case1/19/Q1_1.xlsx
+++ b/data/case1/19/Q1_1.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.090153303293185161</v>
+        <v>0.10989254549611616</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999574955609</v>
+        <v>-0.0059999999245725633</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999678848042</v>
+        <v>-0.0039999999377364759</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.007999999939546143</v>
+        <v>-0.0079999998848041542</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.045831523627136939</v>
+        <v>-0.002999999943356535</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.001999999976678879</v>
+        <v>-0.0019999999486657316</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999212712076</v>
+        <v>-0.0099999998513333743</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999215798496</v>
+        <v>-0.0099999998516429045</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.030874269836759449</v>
+        <v>-0.0019999999542061886</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999772295496</v>
+        <v>-0.0019999999582349659</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999704131142</v>
+        <v>-0.0029999999461356452</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999664808712</v>
+        <v>-0.0034999999412690386</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999652312042</v>
+        <v>-0.0034999999491720502</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999337641015</v>
+        <v>-0.0079999998969304542</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0098357417570884564</v>
+        <v>-0.00099999998752053898</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999751432185</v>
+        <v>-0.0019999999804767299</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999744344521</v>
+        <v>0.036633801316864556</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999602571279</v>
+        <v>-0.0039999999668793862</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.00399999997123901</v>
+        <v>0.0028114148340452338</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999692632571</v>
+        <v>-0.0005892022106817052</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999689319665</v>
+        <v>0.0091833430406094152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999686459731</v>
+        <v>-0.0039999999494808591</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999587377886</v>
+        <v>-0.0049999999211944868</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999850305095</v>
+        <v>-0.019999999728490536</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999848264949</v>
+        <v>-0.019999999724596762</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999723647193</v>
+        <v>-0.002499999941893094</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999710999532</v>
+        <v>-0.0024999999404680118</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.051372378256973938</v>
+        <v>-0.001999999941160624</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999264291901</v>
+        <v>-0.0069999998757790394</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999552736494</v>
+        <v>-0.059999999219685574</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999190155648</v>
+        <v>-0.0069999998853074175</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998976567639</v>
+        <v>0.055644490481812525</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999393227625</v>
+        <v>-0.003999999925984099</v>
       </c>
     </row>
   </sheetData>
